--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEXP\Documents\!Учёба\Статистика\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94135491-D220-4F7E-96B2-5297FD0164AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="13395" windowHeight="12600" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -13,6 +19,7 @@
     <sheet name="Пункт 1" sheetId="4" r:id="rId4"/>
     <sheet name="Пункт 2" sheetId="5" r:id="rId5"/>
     <sheet name="Пункт 3" sheetId="6" r:id="rId6"/>
+    <sheet name="Пункт 4" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ax">'Пункт 1'!$B$9</definedName>
@@ -44,12 +51,12 @@
     <definedName name="yi">Данные!$C1</definedName>
     <definedName name="yu" localSheetId="5">'Пункт 3'!$D1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>День</t>
   </si>
@@ -814,11 +821,44 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ᵧ</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -903,10 +943,9 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,23 +963,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -960,6 +1020,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Пункт 3'!$A$2:$A$31</c:f>
@@ -1158,6 +1222,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2938-42D6-9723-480886D35631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1173,6 +1243,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1374,7 +1451,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2938-42D6-9723-480886D35631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="107847040"/>
         <c:axId val="107835776"/>
       </c:scatterChart>
@@ -1383,8 +1474,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107835776"/>
         <c:crosses val="autoZero"/>
@@ -1395,9 +1489,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107847040"/>
         <c:crosses val="autoZero"/>
@@ -1406,9 +1503,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1419,13 +1518,25 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1445,6 +1556,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Пункт 3'!$D$2:$D$31</c:f>
@@ -1643,6 +1758,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DF7-4B9F-9C84-814BACC82451}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1658,6 +1779,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1859,7 +1987,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DF7-4B9F-9C84-814BACC82451}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="112970752"/>
         <c:axId val="112704128"/>
       </c:scatterChart>
@@ -1868,8 +2010,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="112704128"/>
         <c:crosses val="autoZero"/>
@@ -1880,9 +2025,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="112970752"/>
         <c:crosses val="autoZero"/>
@@ -1891,9 +2039,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1920,7 +2070,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1950,7 +2106,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1963,6 +2125,55 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408393</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5721DF49-71C2-72B1-AA1E-CE8CAFD0F351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815702" y="571500"/>
+          <a:ext cx="3450441" cy="5929312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2252,17 +2463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1">
@@ -2560,732 +2768,732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="4"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="5" width="9.140625" style="3"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f t="array" ref="B2:B11">TRANSPOSE('Исходные данные'!A3:J3)</f>
         <v>29.3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f t="array" ref="C2:C11">TRANSPOSE('Исходные данные'!A2:J2)</f>
         <v>-6.9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>xi^2</f>
         <v>858.49</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>yi^2</f>
         <v>47.610000000000007</v>
       </c>
       <c r="F2">
-        <f>X*Y</f>
+        <f t="shared" ref="F2:F31" si="0">xi*yi</f>
         <v>-202.17000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>29.3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-5.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>xi^2</f>
         <v>858.49</v>
       </c>
-      <c r="E3" s="4">
-        <f>yi^2</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E31" si="1">yi^2</f>
         <v>30.25</v>
       </c>
       <c r="F3">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-161.15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>29.3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>-5.5</v>
       </c>
-      <c r="D4" s="4">
-        <f>xi^2</f>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D31" si="2">xi^2</f>
         <v>858.49</v>
       </c>
-      <c r="E4" s="4">
-        <f>yi^2</f>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
         <v>30.25</v>
       </c>
       <c r="F4">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-161.15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>29.3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>-5.5</v>
       </c>
-      <c r="D5" s="4">
-        <f>xi^2</f>
+      <c r="D5" s="3">
+        <f t="shared" si="2"/>
         <v>858.49</v>
       </c>
-      <c r="E5" s="4">
-        <f>yi^2</f>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
         <v>30.25</v>
       </c>
       <c r="F5">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-161.15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>29.2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>-5.6</v>
       </c>
-      <c r="D6" s="4">
-        <f>xi^2</f>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
         <v>852.64</v>
       </c>
-      <c r="E6" s="4">
-        <f>yi^2</f>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
         <v>31.359999999999996</v>
       </c>
       <c r="F6">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-163.51999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>28.6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-6</v>
       </c>
-      <c r="D7" s="4">
-        <f>xi^2</f>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
         <v>817.96</v>
       </c>
-      <c r="E7" s="4">
-        <f>yi^2</f>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F7">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-171.60000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>28.6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>-6</v>
       </c>
-      <c r="D8" s="4">
-        <f>xi^2</f>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
         <v>817.96</v>
       </c>
-      <c r="E8" s="4">
-        <f>yi^2</f>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F8">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-171.60000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>28.7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>-5.9</v>
       </c>
-      <c r="D9" s="4">
-        <f>xi^2</f>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
         <v>823.68999999999994</v>
       </c>
-      <c r="E9" s="4">
-        <f>yi^2</f>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
         <v>34.81</v>
       </c>
       <c r="F9">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-169.33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>28.8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-5.8</v>
       </c>
-      <c r="D10" s="4">
-        <f>xi^2</f>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
         <v>829.44</v>
       </c>
-      <c r="E10" s="4">
-        <f>yi^2</f>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>33.64</v>
       </c>
       <c r="F10">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-167.04</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>28.9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-5.8</v>
       </c>
-      <c r="D11" s="4">
-        <f>xi^2</f>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
         <v>835.20999999999992</v>
       </c>
-      <c r="E11" s="4">
-        <f>yi^2</f>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
         <v>33.64</v>
       </c>
       <c r="F11">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-167.61999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="array" ref="B12:B21">TRANSPOSE('Исходные данные'!A7:J7)</f>
         <v>24.6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="array" ref="C12:C21">TRANSPOSE('Исходные данные'!A6:J6)</f>
         <v>-8.5</v>
       </c>
-      <c r="D12" s="4">
-        <f>xi^2</f>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
         <v>605.16000000000008</v>
       </c>
-      <c r="E12" s="4">
-        <f>yi^2</f>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
         <v>72.25</v>
       </c>
       <c r="F12">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-209.10000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>27.1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="D13" s="4">
-        <f>xi^2</f>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
         <v>734.41000000000008</v>
       </c>
-      <c r="E13" s="4">
-        <f>yi^2</f>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
         <v>75.689999999999984</v>
       </c>
       <c r="F13">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-235.76999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>25.4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>-13</v>
       </c>
-      <c r="D14" s="4">
-        <f>xi^2</f>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
         <v>645.16</v>
       </c>
-      <c r="E14" s="4">
-        <f>yi^2</f>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="F14">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-330.2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>28.2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>-7.7</v>
       </c>
-      <c r="D15" s="4">
-        <f>xi^2</f>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
         <v>795.24</v>
       </c>
-      <c r="E15" s="4">
-        <f>yi^2</f>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
         <v>59.290000000000006</v>
       </c>
       <c r="F15">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-217.14</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>28.9</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-7.2</v>
       </c>
-      <c r="D16" s="4">
-        <f>xi^2</f>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
         <v>835.20999999999992</v>
       </c>
-      <c r="E16" s="4">
-        <f>yi^2</f>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
         <v>51.84</v>
       </c>
       <c r="F16">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-208.07999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>29.3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>-6.9</v>
       </c>
-      <c r="D17" s="4">
-        <f>xi^2</f>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
         <v>858.49</v>
       </c>
-      <c r="E17" s="4">
-        <f>yi^2</f>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
         <v>47.610000000000007</v>
       </c>
       <c r="F17">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-202.17000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>29.4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>-6.8</v>
       </c>
-      <c r="D18" s="4">
-        <f>xi^2</f>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
         <v>864.3599999999999</v>
       </c>
-      <c r="E18" s="4">
-        <f>yi^2</f>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
         <v>46.239999999999995</v>
       </c>
       <c r="F18">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-199.92</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>29.4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>-6.8</v>
       </c>
-      <c r="D19" s="4">
-        <f>xi^2</f>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
         <v>864.3599999999999</v>
       </c>
-      <c r="E19" s="4">
-        <f>yi^2</f>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
         <v>46.239999999999995</v>
       </c>
       <c r="F19">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-199.92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>29.4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>-6.8</v>
       </c>
-      <c r="D20" s="4">
-        <f>xi^2</f>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
         <v>864.3599999999999</v>
       </c>
-      <c r="E20" s="4">
-        <f>yi^2</f>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
         <v>46.239999999999995</v>
       </c>
       <c r="F20">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-199.92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>29.3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>-6.9</v>
       </c>
-      <c r="D21" s="4">
-        <f>xi^2</f>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
         <v>858.49</v>
       </c>
-      <c r="E21" s="4">
-        <f>yi^2</f>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
         <v>47.610000000000007</v>
       </c>
       <c r="F21">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-202.17000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f t="array" ref="B22:B31">TRANSPOSE('Исходные данные'!A11:J11)</f>
         <v>29.4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="array" ref="C22:C31">TRANSPOSE('Исходные данные'!A10:J10)</f>
         <v>-6.8</v>
       </c>
-      <c r="D22" s="4">
-        <f>xi^2</f>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
         <v>864.3599999999999</v>
       </c>
-      <c r="E22" s="4">
-        <f>yi^2</f>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
         <v>46.239999999999995</v>
       </c>
       <c r="F22">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-199.92</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>29.8</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>-6.5</v>
       </c>
-      <c r="D23" s="4">
-        <f>xi^2</f>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
         <v>888.04000000000008</v>
       </c>
-      <c r="E23" s="4">
-        <f>yi^2</f>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
         <v>42.25</v>
       </c>
       <c r="F23">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-193.70000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="D24" s="4">
-        <f>xi^2</f>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="E24" s="4">
-        <f>yi^2</f>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
         <v>86.490000000000009</v>
       </c>
       <c r="F24">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-186</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>-9.4</v>
       </c>
-      <c r="D25" s="4">
-        <f>xi^2</f>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
         <v>302.75999999999993</v>
       </c>
-      <c r="E25" s="4">
-        <f>yi^2</f>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
         <v>88.360000000000014</v>
       </c>
       <c r="F25">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-163.56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="D26" s="4">
-        <f>xi^2</f>
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
         <v>396.00999999999993</v>
       </c>
-      <c r="E26" s="4">
-        <f>yi^2</f>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
         <v>96.04000000000002</v>
       </c>
       <c r="F26">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-195.02</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>27.8</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>-8</v>
       </c>
-      <c r="D27" s="4">
-        <f>xi^2</f>
+      <c r="D27" s="3">
+        <f t="shared" si="2"/>
         <v>772.84</v>
       </c>
-      <c r="E27" s="4">
-        <f>yi^2</f>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="F27">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-222.4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>25.3</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>-9.9</v>
       </c>
-      <c r="D28" s="4">
-        <f>xi^2</f>
+      <c r="D28" s="3">
+        <f t="shared" si="2"/>
         <v>640.09</v>
       </c>
-      <c r="E28" s="4">
-        <f>yi^2</f>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
         <v>98.01</v>
       </c>
       <c r="F28">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-250.47000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>25.9</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>-9.6</v>
       </c>
-      <c r="D29" s="4">
-        <f>xi^2</f>
+      <c r="D29" s="3">
+        <f t="shared" si="2"/>
         <v>670.81</v>
       </c>
-      <c r="E29" s="4">
-        <f>yi^2</f>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
         <v>92.16</v>
       </c>
       <c r="F29">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-248.64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="D30" s="4">
-        <f>xi^2</f>
+      <c r="D30" s="3">
+        <f t="shared" si="2"/>
         <v>729</v>
       </c>
-      <c r="E30" s="4">
-        <f>yi^2</f>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
         <v>94.089999999999989</v>
       </c>
       <c r="F30">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-261.89999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>24.6</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>-9.5</v>
       </c>
-      <c r="D31" s="4">
-        <f>xi^2</f>
+      <c r="D31" s="3">
+        <f t="shared" si="2"/>
         <v>605.16000000000008</v>
       </c>
-      <c r="E31" s="4">
-        <f>yi^2</f>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
         <v>90.25</v>
       </c>
       <c r="F31">
-        <f>X*Y</f>
+        <f t="shared" si="0"/>
         <v>-233.70000000000002</v>
       </c>
     </row>
@@ -3295,148 +3503,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="36.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>SUM(X)</f>
         <v>818.09999999999968</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>SUM(X_2)</f>
         <v>22605.17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>SUM(Y)</f>
         <v>-226.30000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>SUM(Y_2)</f>
         <v>1803.7099999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>SUM(XY)</f>
         <v>-6056.03</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>sigma_x/n</f>
         <v>27.269999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>sigma_x2/n</f>
         <v>753.50566666666657</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>sigma_y/n</f>
         <v>-7.5433333333333348</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>sigma_y2/n</f>
         <v>60.123666666666658</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>sigma_xy/n</f>
         <v>-201.86766666666665</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="8" t="str">
         <f>'Пункт 1'!A15</f>
         <v>y = 0,39 * x + -18,17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="8" t="str">
         <f>'Пункт 1'!A16</f>
         <v>x = 1,19 * y + 36,26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
-        <f>(n*sigma_xy-sigma_x*sigma_y)/SQRT((n*sigma_x2-sigma_x^2)*(n*sigma_y2-sigma_y^2))</f>
+      <c r="C14" s="3">
+        <f>'Пункт 2'!B1</f>
         <v>0.68138762883486093</v>
       </c>
     </row>
@@ -3446,29 +3654,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <f>x_</f>
         <v>27.269999999999989</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <f>x2_</f>
         <v>753.50566666666657</v>
       </c>
@@ -3477,7 +3685,7 @@
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <f>y_</f>
         <v>-7.5433333333333348</v>
       </c>
@@ -3486,7 +3694,7 @@
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f>y2_</f>
         <v>60.123666666666658</v>
       </c>
@@ -3495,7 +3703,7 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <f>xy_</f>
         <v>-201.86766666666665</v>
       </c>
@@ -3504,7 +3712,7 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f>x2_-x_^2</f>
         <v>9.8527666666672076</v>
       </c>
@@ -3513,16 +3721,16 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <f>y2_-y_^2</f>
         <v>3.2217888888888595</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <f>xy_-x_*y_</f>
         <v>3.8390333333333047</v>
       </c>
@@ -3531,7 +3739,7 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <f>delta1/delta_x</f>
         <v>0.38964013491977828</v>
       </c>
@@ -3540,7 +3748,7 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <f>y_-ax*x_</f>
         <v>-18.168819812595686</v>
       </c>
@@ -3549,7 +3757,7 @@
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <f>delta1/delta_y</f>
         <v>1.1915843854863259</v>
       </c>
@@ -3558,7 +3766,7 @@
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <f>x_-ay*y_</f>
         <v>36.25851821451851</v>
       </c>
@@ -3569,13 +3777,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="2" t="str">
         <f>"y = "&amp;ROUND(ax,2)&amp;" * x + "&amp;ROUND(bx,2)</f>
         <v>y = 0,39 * x + -18,17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="2" t="str">
         <f>"x = "&amp;ROUND(ay,2)&amp;" * y + "&amp;ROUND(by,2)</f>
         <v>x = 1,19 * y + 36,26</v>
       </c>
@@ -3586,20 +3794,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1">
@@ -3613,42 +3821,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <f t="array" ref="A2:A31">X</f>
         <v>29.3</v>
       </c>
@@ -3656,11 +3864,11 @@
         <f t="array" ref="B2:B31">Y</f>
         <v>-6.9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>ax*A2+bx</f>
         <v>-6.7523638594461826</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f t="array" ref="D2:D31">Y</f>
         <v>-6.9</v>
       </c>
@@ -3668,647 +3876,696 @@
         <f t="array" ref="E2:E31">X</f>
         <v>29.3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <f>ay*D2+by</f>
         <v>28.036585954662861</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>29.3</v>
       </c>
       <c r="B3">
         <v>-5.5</v>
       </c>
-      <c r="C3" s="4">
-        <f>ax*A3+bx</f>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C31" si="0">ax*A3+bx</f>
         <v>-6.7523638594461826</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>-5.5</v>
       </c>
       <c r="E3">
         <v>29.3</v>
       </c>
-      <c r="F3" s="4">
-        <f>ay*D3+by</f>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F31" si="1">ay*D3+by</f>
         <v>29.704804094343718</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>29.3</v>
       </c>
       <c r="B4">
         <v>-5.5</v>
       </c>
-      <c r="C4" s="4">
-        <f>ax*A4+bx</f>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7523638594461826</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>-5.5</v>
       </c>
       <c r="E4">
         <v>29.3</v>
       </c>
-      <c r="F4" s="4">
-        <f>ay*D4+by</f>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
         <v>29.704804094343718</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>29.3</v>
       </c>
       <c r="B5">
         <v>-5.5</v>
       </c>
-      <c r="C5" s="4">
-        <f>ax*A5+bx</f>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7523638594461826</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>-5.5</v>
       </c>
       <c r="E5">
         <v>29.3</v>
       </c>
-      <c r="F5" s="4">
-        <f>ay*D5+by</f>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
         <v>29.704804094343718</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>29.2</v>
       </c>
       <c r="B6">
         <v>-5.6</v>
       </c>
-      <c r="C6" s="4">
-        <f>ax*A6+bx</f>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7913278729381599</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>-5.6</v>
       </c>
       <c r="E6">
         <v>29.2</v>
       </c>
-      <c r="F6" s="4">
-        <f>ay*D6+by</f>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
         <v>29.585645655795084</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>28.6</v>
       </c>
       <c r="B7">
         <v>-6</v>
       </c>
-      <c r="C7" s="4">
-        <f>ax*A7+bx</f>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
         <v>-7.0251119538900273</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-6</v>
       </c>
       <c r="E7">
         <v>28.6</v>
       </c>
-      <c r="F7" s="4">
-        <f>ay*D7+by</f>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
         <v>29.109011901600553</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>28.6</v>
       </c>
       <c r="B8">
         <v>-6</v>
       </c>
-      <c r="C8" s="4">
-        <f>ax*A8+bx</f>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
         <v>-7.0251119538900273</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-6</v>
       </c>
       <c r="E8">
         <v>28.6</v>
       </c>
-      <c r="F8" s="4">
-        <f>ay*D8+by</f>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
         <v>29.109011901600553</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>28.7</v>
       </c>
       <c r="B9">
         <v>-5.9</v>
       </c>
-      <c r="C9" s="4">
-        <f>ax*A9+bx</f>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
         <v>-6.98614794039805</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>-5.9</v>
       </c>
       <c r="E9">
         <v>28.7</v>
       </c>
-      <c r="F9" s="4">
-        <f>ay*D9+by</f>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
         <v>29.228170340149187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>28.8</v>
       </c>
       <c r="B10">
         <v>-5.8</v>
       </c>
-      <c r="C10" s="4">
-        <f>ax*A10+bx</f>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
         <v>-6.9471839269060709</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>-5.8</v>
       </c>
       <c r="E10">
         <v>28.8</v>
       </c>
-      <c r="F10" s="4">
-        <f>ay*D10+by</f>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
         <v>29.347328778697822</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>28.9</v>
       </c>
       <c r="B11">
         <v>-5.8</v>
       </c>
-      <c r="C11" s="4">
-        <f>ax*A11+bx</f>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
         <v>-6.9082199134140936</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>-5.8</v>
       </c>
       <c r="E11">
         <v>28.9</v>
       </c>
-      <c r="F11" s="4">
-        <f>ay*D11+by</f>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
         <v>29.347328778697822</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>24.6</v>
       </c>
       <c r="B12">
         <v>-8.5</v>
       </c>
-      <c r="C12" s="4">
-        <f>ax*A12+bx</f>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
         <v>-8.5836724935691393</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>-8.5</v>
       </c>
       <c r="E12">
         <v>24.6</v>
       </c>
-      <c r="F12" s="4">
-        <f>ay*D12+by</f>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
         <v>26.130050937884739</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>27.1</v>
       </c>
       <c r="B13">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="C13" s="4">
-        <f>ax*A13+bx</f>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
         <v>-7.6095721562696941</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>-8.6999999999999993</v>
       </c>
       <c r="E13">
         <v>27.1</v>
       </c>
-      <c r="F13" s="4">
-        <f>ay*D13+by</f>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
         <v>25.891734060787478</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>25.4</v>
       </c>
       <c r="B14">
         <v>-13</v>
       </c>
-      <c r="C14" s="4">
-        <f>ax*A14+bx</f>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
         <v>-8.2719603856333173</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-13</v>
       </c>
       <c r="E14">
         <v>25.4</v>
       </c>
-      <c r="F14" s="4">
-        <f>ay*D14+by</f>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
         <v>20.767921203196273</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>28.2</v>
       </c>
       <c r="B15">
         <v>-7.7</v>
       </c>
-      <c r="C15" s="4">
-        <f>ax*A15+bx</f>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
         <v>-7.1809680078579383</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-7.7</v>
       </c>
       <c r="E15">
         <v>28.2</v>
       </c>
-      <c r="F15" s="4">
-        <f>ay*D15+by</f>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
         <v>27.0833184462738</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>28.9</v>
       </c>
       <c r="B16">
         <v>-7.2</v>
       </c>
-      <c r="C16" s="4">
-        <f>ax*A16+bx</f>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
         <v>-6.9082199134140936</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>-7.2</v>
       </c>
       <c r="E16">
         <v>28.9</v>
       </c>
-      <c r="F16" s="4">
-        <f>ay*D16+by</f>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
         <v>27.679110639016962</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>29.3</v>
       </c>
       <c r="B17">
         <v>-6.9</v>
       </c>
-      <c r="C17" s="4">
-        <f>ax*A17+bx</f>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7523638594461826</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>-6.9</v>
       </c>
       <c r="E17">
         <v>29.3</v>
       </c>
-      <c r="F17" s="4">
-        <f>ay*D17+by</f>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
         <v>28.036585954662861</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>29.4</v>
       </c>
       <c r="B18">
         <v>-6.8</v>
       </c>
-      <c r="C18" s="4">
-        <f>ax*A18+bx</f>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7133998459542052</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>-6.8</v>
       </c>
       <c r="E18">
         <v>29.4</v>
       </c>
-      <c r="F18" s="4">
-        <f>ay*D18+by</f>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
         <v>28.155744393211492</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>29.4</v>
       </c>
       <c r="B19">
         <v>-6.8</v>
       </c>
-      <c r="C19" s="4">
-        <f>ax*A19+bx</f>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7133998459542052</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>-6.8</v>
       </c>
       <c r="E19">
         <v>29.4</v>
       </c>
-      <c r="F19" s="4">
-        <f>ay*D19+by</f>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
         <v>28.155744393211492</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>29.4</v>
       </c>
       <c r="B20">
         <v>-6.8</v>
       </c>
-      <c r="C20" s="4">
-        <f>ax*A20+bx</f>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7133998459542052</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>-6.8</v>
       </c>
       <c r="E20">
         <v>29.4</v>
       </c>
-      <c r="F20" s="4">
-        <f>ay*D20+by</f>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
         <v>28.155744393211492</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>29.3</v>
       </c>
       <c r="B21">
         <v>-6.9</v>
       </c>
-      <c r="C21" s="4">
-        <f>ax*A21+bx</f>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7523638594461826</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>-6.9</v>
       </c>
       <c r="E21">
         <v>29.3</v>
       </c>
-      <c r="F21" s="4">
-        <f>ay*D21+by</f>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
         <v>28.036585954662861</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>29.4</v>
       </c>
       <c r="B22">
         <v>-6.8</v>
       </c>
-      <c r="C22" s="4">
-        <f>ax*A22+bx</f>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
         <v>-6.7133998459542052</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>-6.8</v>
       </c>
       <c r="E22">
         <v>29.4</v>
       </c>
-      <c r="F22" s="4">
-        <f>ay*D22+by</f>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
         <v>28.155744393211492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>29.8</v>
       </c>
       <c r="B23">
         <v>-6.5</v>
       </c>
-      <c r="C23" s="4">
-        <f>ax*A23+bx</f>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
         <v>-6.5575437919862924</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>-6.5</v>
       </c>
       <c r="E23">
         <v>29.8</v>
       </c>
-      <c r="F23" s="4">
-        <f>ay*D23+by</f>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
         <v>28.513219708857392</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="C24" s="4">
-        <f>ax*A24+bx</f>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
         <v>-10.376017114200121</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>-9.3000000000000007</v>
       </c>
       <c r="E24">
         <v>20</v>
       </c>
-      <c r="F24" s="4">
-        <f>ay*D24+by</f>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
         <v>25.176783429495678</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>17.399999999999999</v>
       </c>
       <c r="B25">
         <v>-9.4</v>
       </c>
-      <c r="C25" s="4">
-        <f>ax*A25+bx</f>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
         <v>-11.389081464991545</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>-9.4</v>
       </c>
       <c r="E25">
         <v>17.399999999999999</v>
       </c>
-      <c r="F25" s="4">
-        <f>ay*D25+by</f>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
         <v>25.057624990947048</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>19.899999999999999</v>
       </c>
       <c r="B26">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="C26" s="4">
-        <f>ax*A26+bx</f>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
         <v>-10.414981127692098</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>-9.8000000000000007</v>
       </c>
       <c r="E26">
         <v>19.899999999999999</v>
       </c>
-      <c r="F26" s="4">
-        <f>ay*D26+by</f>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
         <v>24.580991236752517</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>27.8</v>
       </c>
       <c r="B27">
         <v>-8</v>
       </c>
-      <c r="C27" s="4">
-        <f>ax*A27+bx</f>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
         <v>-7.3368240618258493</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>-8</v>
       </c>
       <c r="E27">
         <v>27.8</v>
       </c>
-      <c r="F27" s="4">
-        <f>ay*D27+by</f>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
         <v>26.725843130627901</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>25.3</v>
       </c>
       <c r="B28">
         <v>-9.9</v>
       </c>
-      <c r="C28" s="4">
-        <f>ax*A28+bx</f>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
         <v>-8.3109243991252946</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>-9.9</v>
       </c>
       <c r="E28">
         <v>25.3</v>
       </c>
-      <c r="F28" s="4">
-        <f>ay*D28+by</f>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
         <v>24.461832798203883</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>25.9</v>
       </c>
       <c r="B29">
         <v>-9.6</v>
       </c>
-      <c r="C29" s="4">
-        <f>ax*A29+bx</f>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
         <v>-8.0771403181734289</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>-9.6</v>
       </c>
       <c r="E29">
         <v>25.9</v>
       </c>
-      <c r="F29" s="4">
-        <f>ay*D29+by</f>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
         <v>24.819308113849779</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="C30" s="4">
-        <f>ax*A30+bx</f>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
         <v>-7.6485361697616732</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>-9.6999999999999993</v>
       </c>
       <c r="E30">
         <v>27</v>
       </c>
-      <c r="F30" s="4">
-        <f>ay*D30+by</f>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
         <v>24.700149675301148</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>24.6</v>
       </c>
       <c r="B31">
         <v>-9.5</v>
       </c>
-      <c r="C31" s="4">
-        <f>ax*A31+bx</f>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
         <v>-8.5836724935691393</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>-9.5</v>
       </c>
       <c r="E31">
         <v>24.6</v>
       </c>
-      <c r="F31" s="4">
-        <f>ay*D31+by</f>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
         <v>24.938466552398413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FDC24B-0A69-4078-9BD8-33849F3A7FE3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <f>n-2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEXP\Documents\!Учёба\Статистика\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94135491-D220-4F7E-96B2-5297FD0164AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -23,40 +17,54 @@
   </sheets>
   <definedNames>
     <definedName name="ax">'Пункт 1'!$B$9</definedName>
+    <definedName name="axi_b_y_2">'Пункт 4'!$L$2:$L$31</definedName>
     <definedName name="ay">'Пункт 1'!$B$11</definedName>
     <definedName name="bx">'Пункт 1'!$B$10</definedName>
     <definedName name="by">'Пункт 1'!$B$12</definedName>
     <definedName name="delta_x">'Пункт 1'!$B$6</definedName>
     <definedName name="delta_y">'Пункт 1'!$B$7</definedName>
     <definedName name="delta1">'Пункт 1'!$B$8</definedName>
+    <definedName name="F_кр">Величины!$C$16</definedName>
+    <definedName name="F_расч">Величины!$C$15</definedName>
+    <definedName name="l">'Пункт 4'!$B$7</definedName>
     <definedName name="n">Величины!$C$1</definedName>
     <definedName name="r_">Величины!$C$14</definedName>
+    <definedName name="s_2">'Пункт 4'!$B$9</definedName>
+    <definedName name="s_2R">'Пункт 4'!$B$8</definedName>
+    <definedName name="s_a">'Пункт 4'!$B$5</definedName>
+    <definedName name="s_b">'Пункт 4'!$B$6</definedName>
     <definedName name="sigma_x">Величины!$C$2</definedName>
     <definedName name="sigma_x2">Величины!$C$3</definedName>
     <definedName name="sigma_xy">Величины!$C$6</definedName>
     <definedName name="sigma_y">Величины!$C$4</definedName>
     <definedName name="sigma_y2">Величины!$C$5</definedName>
+    <definedName name="t_gamma" localSheetId="6">'Пункт 4'!$B$3</definedName>
     <definedName name="X">Данные!$B$2:$B$31</definedName>
     <definedName name="x_">Величины!$C$7</definedName>
     <definedName name="X_2">Данные!$D$2:$D$31</definedName>
     <definedName name="x2_">Величины!$C$8</definedName>
     <definedName name="xi" localSheetId="1">Данные!$B1</definedName>
     <definedName name="xi" localSheetId="5">'Пункт 3'!$A1</definedName>
+    <definedName name="xi" localSheetId="6">'Пункт 4'!$H1</definedName>
+    <definedName name="xi_x_2" localSheetId="6">'Пункт 4'!$K$2:$K$31</definedName>
     <definedName name="XY">Данные!$F$2:$F$31</definedName>
     <definedName name="xy_">Величины!$C$11</definedName>
     <definedName name="Y">Данные!$C$2:$C$31</definedName>
     <definedName name="y_">Величины!$C$9</definedName>
     <definedName name="Y_2">Данные!$E$2:$E$31</definedName>
     <definedName name="y2_">Величины!$C$10</definedName>
-    <definedName name="yi">Данные!$C1</definedName>
+    <definedName name="yi" localSheetId="1">Данные!$C1</definedName>
+    <definedName name="yi" localSheetId="5">'Пункт 3'!$D1</definedName>
+    <definedName name="yi" localSheetId="6">'Пункт 4'!$I1</definedName>
+    <definedName name="yi_axi_b_2" localSheetId="6">'Пункт 4'!$J$2:$J$31</definedName>
     <definedName name="yu" localSheetId="5">'Пункт 3'!$D1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>День</t>
   </si>
@@ -292,198 +300,6 @@
   <si>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -854,12 +670,545 @@
       <t>ᵧ</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt; a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt; b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ax</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ax</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>расч</t>
+    </r>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кр</t>
+    </r>
+  </si>
+  <si>
+    <t>Вывод:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +1254,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -941,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -964,6 +1330,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -982,25 +1351,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1222,8 +1579,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2938-42D6-9723-480886D35631}"/>
             </c:ext>
@@ -1451,92 +1807,63 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2938-42D6-9723-480886D35631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="107847040"/>
-        <c:axId val="107835776"/>
+        <c:axId val="99302016"/>
+        <c:axId val="99320192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107847040"/>
+        <c:axId val="99302016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107835776"/>
+        <c:crossAx val="99320192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107835776"/>
+        <c:axId val="99320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107847040"/>
+        <c:crossAx val="99302016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1758,8 +2085,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DF7-4B9F-9C84-814BACC82451}"/>
             </c:ext>
@@ -1987,67 +2313,50 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6DF7-4B9F-9C84-814BACC82451}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="112970752"/>
-        <c:axId val="112704128"/>
+        <c:axId val="98830208"/>
+        <c:axId val="98831744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112970752"/>
+        <c:axId val="98830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112704128"/>
+        <c:crossAx val="98831744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112704128"/>
+        <c:axId val="98831744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112970752"/>
+        <c:crossAx val="98830208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2073,7 +2382,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2418,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,22 +2444,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>601264</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>52912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>408393</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5721DF49-71C2-72B1-AA1E-CE8CAFD0F351}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5721DF49-71C2-72B1-AA1E-CE8CAFD0F351}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,19 +2468,66 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1815702" y="571500"/>
-          <a:ext cx="3450441" cy="5929312"/>
+          <a:off x="1344740" y="398858"/>
+          <a:ext cx="2968903" cy="5101827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>5455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20694</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1291828" y="5720455"/>
+          <a:ext cx="3056788" cy="3429498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2463,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2768,7 +3124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3503,11 +3859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3530,7 +3886,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <f>SUM(X)</f>
@@ -3539,7 +3895,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <f>SUM(X_2)</f>
@@ -3548,7 +3904,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(Y)</f>
@@ -3557,7 +3913,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <f>SUM(Y_2)</f>
@@ -3566,7 +3922,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(XY)</f>
@@ -3620,7 +3976,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>'Пункт 1'!A15</f>
@@ -3629,7 +3985,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>'Пункт 1'!A16</f>
@@ -3646,6 +4002,33 @@
       <c r="C14" s="3">
         <f>'Пункт 2'!B1</f>
         <v>0.68138762883486093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3">
+        <f>'Пункт 4'!B10</f>
+        <v>24.266997065231607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3">
+        <f>'Пункт 4'!B13</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>IF(F_расч&lt;F_кр, "Уравнение регрессии не является значимым","Уравнение регрессии является значимым")</f>
+        <v>Уравнение регрессии является значимым</v>
       </c>
     </row>
   </sheetData>
@@ -3654,11 +4037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3736,8 +4119,8 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
+      <c r="A9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <f>delta1/delta_x</f>
@@ -3745,8 +4128,8 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <f>y_-ax*x_</f>
@@ -3754,8 +4137,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
+      <c r="A11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <f>delta1/delta_y</f>
@@ -3763,8 +4146,8 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
+      <c r="A12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <f>x_-ay*y_</f>
@@ -3794,7 +4177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3821,11 +4204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3837,22 +4220,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3865,7 +4248,7 @@
         <v>-6.9</v>
       </c>
       <c r="C2" s="3">
-        <f>ax*A2+bx</f>
+        <f t="shared" ref="C2:C31" si="0">ax*xi+bx</f>
         <v>-6.7523638594461826</v>
       </c>
       <c r="D2" s="3">
@@ -3877,7 +4260,7 @@
         <v>29.3</v>
       </c>
       <c r="F2" s="3">
-        <f>ay*D2+by</f>
+        <f t="shared" ref="F2:F31" si="1">ay*yi+by</f>
         <v>28.036585954662861</v>
       </c>
     </row>
@@ -3889,7 +4272,7 @@
         <v>-5.5</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C31" si="0">ax*A3+bx</f>
+        <f t="shared" si="0"/>
         <v>-6.7523638594461826</v>
       </c>
       <c r="D3" s="3">
@@ -3899,7 +4282,7 @@
         <v>29.3</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F31" si="1">ay*D3+by</f>
+        <f t="shared" si="1"/>
         <v>29.704804094343718</v>
       </c>
     </row>
@@ -4526,46 +4909,747 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FDC24B-0A69-4078-9BD8-33849F3A7FE3}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1">
+        <f>ax-t_gamma*s_a</f>
+        <v>0.22788838843080722</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1">
+        <f>ax+t_gamma*s_a</f>
+        <v>0.55139188140874928</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>n-2</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <f>bx-t_gamma*s_b</f>
+        <v>-18.676544262306894</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <f>bx+t_gamma*s_b</f>
+        <v>-17.661095362884478</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:H31">X</f>
+        <v>29.3</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2:I31">Y</f>
+        <v>-6.9</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J31" si="0">(yi-(ax*xi+bx))^2</f>
+        <v>2.1796429997626644E-2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K31" si="1">(xi-x_)^2</f>
+        <v>4.1209000000000477</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L31" si="2">((ax*xi+bx)-y_)^2</f>
+        <v>0.62563270862131837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>2.0449999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" s="4"/>
+      <c r="H3">
+        <v>29.3</v>
+      </c>
+      <c r="I3">
+        <v>-5.5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.5684152364469377</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>4.1209000000000477</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>0.62563270862131837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0.05</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="H4">
+        <v>29.3</v>
+      </c>
+      <c r="I4">
+        <v>-5.5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.5684152364469377</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4.1209000000000477</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.62563270862131837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f>SQRT(SUM(yi_axi_b_2)/((n-2)*SUM(xi_x_2)))</f>
+        <v>7.909620855206409E-2</v>
+      </c>
+      <c r="H5">
+        <v>29.3</v>
+      </c>
+      <c r="I5">
+        <v>-5.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.5684152364469377</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4.1209000000000477</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.62563270862131837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(SUM(yi_axi_b_2)/((n-2)*n))</f>
+        <v>0.24827601452870884</v>
+      </c>
+      <c r="H6">
+        <v>29.2</v>
+      </c>
+      <c r="I6">
+        <v>-5.6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.4192621008393613</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>3.7249000000000398</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.56551221246415895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>28.6</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.0508545180082294</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.7689000000000332</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.26855339811212448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <f>SUM(axi_b_y_2)/(l-1)</f>
+        <v>44.875243978842988</v>
+      </c>
+      <c r="H8">
+        <v>28.6</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.0508545180082294</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.7689000000000332</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.26855339811212448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <f>SUM(yi_axi_b_2)/(n-2)</f>
+        <v>1.8492293817077896</v>
+      </c>
+      <c r="H9">
+        <v>28.7</v>
+      </c>
+      <c r="I9">
+        <v>-5.9</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.1797173484309251</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0449000000000295</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.31045556210044772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <f>s_2R/s_2</f>
+        <v>24.266997065231607</v>
+      </c>
+      <c r="H10">
+        <v>28.8</v>
+      </c>
+      <c r="I10">
+        <v>-5.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.3160309621516337</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2.340900000000036</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.35539411478357907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <f>l-1</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>28.9</v>
+      </c>
+      <c r="I11">
+        <v>-5.8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.2281513764875416</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2.6569000000000313</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.40336905616151442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <f>n-l</f>
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>24.6</v>
+      </c>
+      <c r="I12">
+        <v>-8.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>7.0010861800776586E-3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>7.1288999999999332</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.082305568320139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>4.45</v>
+      </c>
+      <c r="H13">
+        <v>27.1</v>
+      </c>
+      <c r="I13">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.1890328823823229</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2.8899999999995749E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>4.3875816639943584E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14">
+        <v>25.4</v>
+      </c>
+      <c r="I14">
+        <v>-13</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>22.354358595020649</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3.4968999999999637</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.5308973813433614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15">
+        <v>28.2</v>
+      </c>
+      <c r="I15">
+        <v>-7.7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.26939420886695736</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.86490000000001932</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.13130862910689001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16">
+        <v>28.9</v>
+      </c>
+      <c r="I16">
+        <v>-7.2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>8.5135618928079151E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2.6569000000000313</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.40336905616151442</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17">
+        <v>29.3</v>
+      </c>
+      <c r="I17">
+        <v>-6.9</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.1796429997626644E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.1209000000000477</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.62563270862131837</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18">
+        <v>29.4</v>
+      </c>
+      <c r="I18">
+        <v>-6.8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>7.4995866807553505E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>4.536900000000041</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.68878959347328372</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="H19">
+        <v>29.4</v>
+      </c>
+      <c r="I19">
+        <v>-6.8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>7.4995866807553505E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.536900000000041</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.68878959347328372</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="H20">
+        <v>29.4</v>
+      </c>
+      <c r="I20">
+        <v>-6.8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>7.4995866807553505E-3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>4.536900000000041</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.68878959347328372</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21">
+        <v>29.3</v>
+      </c>
+      <c r="I21">
+        <v>-6.9</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.1796429997626644E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>4.1209000000000477</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.62563270862131837</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12">
+      <c r="H22">
+        <v>29.4</v>
+      </c>
+      <c r="I22">
+        <v>-6.8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>7.4995866807553505E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>4.536900000000041</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.68878959347328372</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12">
+      <c r="H23">
+        <v>29.8</v>
+      </c>
+      <c r="I23">
+        <v>-6.5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>3.3112879961616948E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>6.4009000000000595</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.97178101982921206</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12">
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.1578128300515538</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>52.852899999999842</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>8.024097402385749</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="H25">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I25">
+        <v>-9.4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>3.9564450743729087</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>97.416899999999814</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>14.789778692152613</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12">
+      <c r="H26">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I26">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.37820178741744348</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>54.316899999999855</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>8.2463610548455488</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12">
+      <c r="H27">
+        <v>27.8</v>
+      </c>
+      <c r="I27">
+        <v>-8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.4398023249731649</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.28090000000001253</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>4.2646079218552339E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12">
+      <c r="H28">
+        <v>25.3</v>
+      </c>
+      <c r="I28">
+        <v>-9.9</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>2.5251612652953073</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>3.8808999999999534</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.5891960442836367</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12">
+      <c r="H29">
+        <v>25.9</v>
+      </c>
+      <c r="I29">
+        <v>-9.6</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>2.3191016105329241</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>1.8768999999999736</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.28494989706407248</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12">
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>4.2085038467761038</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>7.2899999999994011E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>1.1067636792567722E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12">
+      <c r="H31">
+        <v>24.6</v>
+      </c>
+      <c r="I31">
+        <v>-9.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.83965609904179905</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>7.1288999999999332</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.082305568320139</v>
       </c>
     </row>
   </sheetData>
